--- a/画面設計/【画面設計】13_ユーザ管理(体重).xlsx
+++ b/画面設計/【画面設計】13_ユーザ管理(体重).xlsx
@@ -259,7 +259,8 @@
     <t>ボタン</t>
   </si>
   <si>
-    <t>上記の情報で、ユーザカロリー、体重履歴へ新規登録する。</t>
+    <t>上記の情報で、ユーザカロリー、体重履歴へ新規登録する。
+（既にカロリーの方で登録されていた場合は更新する）</t>
   </si>
   <si>
     <t>1. 処理一覧</t>
@@ -5622,7 +5623,7 @@
       <c r="H111" s="54"/>
       <c r="I111" s="54"/>
       <c r="J111" s="54"/>
-      <c r="K111" s="49" t="s">
+      <c r="K111" s="47" t="s">
         <v>78</v>
       </c>
       <c r="L111" s="35"/>
